--- a/graphs/newCDC.xlsx
+++ b/graphs/newCDC.xlsx
@@ -5,26 +5,27 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shah\Documents\thesis_git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shah\Documents\thesis_git\graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Emacs" sheetId="2" r:id="rId2"/>
     <sheet name="Gcc" sheetId="3" r:id="rId3"/>
-    <sheet name="periodic" sheetId="4" r:id="rId4"/>
-    <sheet name="GCC-2min" sheetId="5" r:id="rId5"/>
-    <sheet name="GCC-SLACK" sheetId="6" r:id="rId6"/>
+    <sheet name="Gcc-hash" sheetId="7" r:id="rId4"/>
+    <sheet name="periodic" sheetId="4" r:id="rId5"/>
+    <sheet name="GCC-2min" sheetId="5" r:id="rId6"/>
+    <sheet name="GCC-SLACK" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="44">
   <si>
     <t>Original</t>
   </si>
@@ -127,11 +128,41 @@
   <si>
     <t>LB = 2</t>
   </si>
+  <si>
+    <t>Avg Block Size</t>
+  </si>
+  <si>
+    <t>Rolling hash</t>
+  </si>
+  <si>
+    <t>md5 Hash</t>
+  </si>
+  <si>
+    <t>Kr</t>
+  </si>
+  <si>
+    <t>Rolling Hash</t>
+  </si>
+  <si>
+    <t>winnowing</t>
+  </si>
+  <si>
+    <t>MaxBoundary = 8*i</t>
+  </si>
+  <si>
+    <t>min = 2*i</t>
+  </si>
+  <si>
+    <t>Tddd</t>
+  </si>
+  <si>
+    <t>Md5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -191,13 +222,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -284,7 +316,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -473,6 +505,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3CC7-40B3-81BF-CF02BF1C2D60}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -628,6 +665,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3CC7-40B3-81BF-CF02BF1C2D60}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -794,7 +836,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -960,6 +1002,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7043-4AD2-B058-8C7D306F670C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1115,6 +1162,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7043-4AD2-B058-8C7D306F670C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1225,7 +1277,2914 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rolling Hash vs Md5Hash - KR</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Rolling Hash</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gcc-hash'!$B$30:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>73.319198299643602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1240.32663095969</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1254.3136210264599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1341.18965107999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1636.28865979381</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>164256.74418604601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2115.4743541744601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4973.0962858651601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3621.6074862197102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3081.2694950376199</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1837.6583842851501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4537.0419142444198</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1284189.0909090899</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3621.6074862197102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2156.9827454573201</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>14126080</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>88564.764890282095</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4552.3944569771102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4552.3944569771102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gcc-hash'!$C$30:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.91247274544671897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72688484703470402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71715943134967297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59967298075616104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67201990927419297</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1729411131750598E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62699198928506705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43109539235230099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47012171812703801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57501536165730305</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64961408260465703</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39654645874863997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.9723929073033696E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.47012171812703801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.62256404466065596</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.13098609097499E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.39057406584133703</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39057406584133703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-479C-47FA-AD2D-C853BA74A290}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Md5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gcc-hash'!$E$30:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>101.976054604453</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146.59312491892501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>208.54458083898601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>261.57954187730297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>306.898551984096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>373.48844587806002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>399.453673985889</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>438.60278821374197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>520.27844278295402</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>513.45158476301197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>654.34871224754397</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>695.90029065471197</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>740.69055921138795</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>722.063025532241</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>738.21326853230903</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>790.97821826530003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>893.63150403289501</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1032.6836757072799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1017.03301054753</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gcc-hash'!$F$30:$F$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.92257292893711396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.918931862200978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89089857200299005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88299004394708203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87714153537286998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87096324670396796</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85364835821402596</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86172214797027902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84940864698486696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82840844735411301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82902277206415298</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.81505222963483104</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.82580160242614997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.82227893371692595</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.80246851922118501</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.82872385686616501</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.78599087644980004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.78183526498504896</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.78516662088845601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-479C-47FA-AD2D-C853BA74A290}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="338160896"/>
+        <c:axId val="338161224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="338160896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Avg Block</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> SIze</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338161224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="338161224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338160896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rolling</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Hash vs Md5 Tddd</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Rolling Hash</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gcc-hash'!$D$86:$D$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>288.56708033297502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>863.030303030303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1123.5250139187101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1398.69102430813</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1706.76976983024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2326.81271619173</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2270.3439408550298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2937.1202827736702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3292.0251689582801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3308.2154566744698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2965.1721242653198</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3872.2807017543801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5271.9089382347402</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4207.3209233060297</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3859.05750580521</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5821.5866474345703</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6014.9371939535804</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5804.8407643312103</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6180.7394443229005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gcc-hash'!$E$86:$E$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.88924899901458798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75678149918448701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75816196000588898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70024387515857101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.757550077586988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48931278174836801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31522028758155102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65685384763501198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7739358689742595E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.225924566475625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56276451074891198</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57154642335311701</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6589471389090201E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.494781779517035</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55379801048840105</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.34959256212622303</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.450860571368702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.58139621890857196</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.48613812182856098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F2E9-45AF-BB50-0498F25D125A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Md5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gcc-hash'!$I$86:$I$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>304.73363462803701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>453.42748924696599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>624.12265005412303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>786.83674037765195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>929.22510196026803</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1112.8593374561699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1257.4958828504</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1407.9617263031901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1578.33296089385</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1733.89959494292</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1950.44252675181</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2116.7423391024199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2247.58631662688</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2342.05089944458</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2550.2942769452902</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2645.5810469144999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2897.3602707414602</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3087.33034641022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3195.5842099309998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gcc-hash'!$J$86:$J$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.89642066305726698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88284014390404097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86557601259514305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85272049995469301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84111112212305095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.833704714966926</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81705023615893402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81480364687160201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80366524187885102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78398940116437099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78260186123821995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76985455271384495</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.76788680936253995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76371456200163101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.74820537615530902</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75153159970777395</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.73069687415050699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72199707916138001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72602424027047796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F2E9-45AF-BB50-0498F25D125A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="446193832"/>
+        <c:axId val="446194816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="446193832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Avg Block SIze</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446194816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="446194816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446193832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rolling Hash vs Md5 - 2min</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Rolling hash</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gcc-hash'!$B$5:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>286.92882677933</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>468.58886751144399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>652.17359187442196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>844.50768219046995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1056.2344848212899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1260.4131162168101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1465.51302002282</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1678.3793738489801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1895.8636424640899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2169.9047619047601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2493.7911554417801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2805.5769612711001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3097.8245614035</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3377.0212765957399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3697.4427430964502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4034.2938740539698</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4352.5127099060201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4671.3227513227503</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5029.7596581805201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gcc-hash'!$C$5:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.90368109907348604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88585265692959403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.870370761032076</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85407519283481304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83923077031986204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82409798047299698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80872450106469695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79606192942415699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77964764464026803</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75492326958363498</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72477906114081103</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70398504043584598</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68826026045442101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67345767544853197</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.65640867813292803</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.635827136756977</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.62116485960719403</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61008128228071701</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.59931385777228996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA4C-4126-9BFF-E13300EF0BC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>md5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gcc-hash'!$E$5:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>215.970339792837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>330.89128856199198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>443.05993789793899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>555.56525672035002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>672.47833952204098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>787.20945136392697</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>904.56120129350302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1026.56734857018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1173.1650195166501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1303.20402232575</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1431.21377912867</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1561.41041229136</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1686.19277827514</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1806.6351195805</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1924.0098065922</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2036.3384748450301</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2147.3101770920398</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2276.5640612409302</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2395.8751696065101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gcc-hash'!$F$5:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.91584204535157598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.895224719101123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88485022030173899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87509326720505598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86585223926241395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85753078702654895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84994329637096699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84232621505753902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82518600347725601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81729014701884695</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.80983616827881399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.80269299763274704</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79541043941418899</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.78901701675199298</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.78295900207276103</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.77780442274148198</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.77309441118838296</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.76704761689017698</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.76190917791772295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CA4C-4126-9BFF-E13300EF0BC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="459470808"/>
+        <c:axId val="459477368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="459470808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Avg Block Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459477368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="459477368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459470808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Winnowing</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Rolling Hash</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gcc-hash'!$B$57:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>31.377657040108101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.122524240522097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.944555099567303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.524667166403901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.210450539031498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119.95499377980001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>142.55304333785699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>165.32656082674501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>184.863669377793</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200.45380691211199</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>215.04646932111399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>229.51136095924301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>242.94991744634001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>256.04640203008802</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>269.41458065131297</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>282.22808279389398</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>294.45589752675897</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>306.698654971395</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>318.90913195620197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gcc-hash'!$C$57:$C$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.95219526577790803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.944475502050108</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93939252786335603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93485220245106904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93089629253126105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92685214157076801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92277542672843405</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91873973529811503</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91469055817325096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91157787581551197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90930151889271404</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90728946034568603</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.905407940490213</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.90325497236317498</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90124822314470798</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89903529500045298</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.89722148678189495</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.89536017777047805</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.89330992745333404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3EAE-488A-B07A-F18F14168CFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Md5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gcc-hash'!$E$57:$E$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>32.9150356037728</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.139421553225297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.818411232254704</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.987193781260302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110.465719145275</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136.14055377261201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>165.444675431148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>194.716252911905</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>219.93305204814001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>239.79086742488499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>258.34325478469901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>276.97109917258098</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>294.65858720705802</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>311.64480723622501</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>328.50966849222601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>344.90868248852399</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>361.21615056128002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>378.30958757364698</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>395.47250101485099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gcc-hash'!$F$57:$F$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.95450623952292502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94702695298341699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94302453334541503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93914886507792605</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93521847533073499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93150520172616802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92124258817732796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91296665458499404</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90798707072308804</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.903652782654494</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90066773655536403</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89792759208499395</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89575706777817998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.89359280847906797</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.89135644849809703</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.88937497168358104</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.88718448430137697</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.88503558665956805</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.88288406974900302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3EAE-488A-B07A-F18F14168CFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="454966760"/>
+        <c:axId val="454970368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="454966760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Avg Block Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454970368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="454970368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454966760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -1408,6 +4367,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-432A-497C-8F87-46D83F146C63}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1557,6 +4521,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-432A-497C-8F87-46D83F146C63}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1706,6 +4675,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-432A-497C-8F87-46D83F146C63}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1855,6 +4829,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-432A-497C-8F87-46D83F146C63}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2004,6 +4983,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-432A-497C-8F87-46D83F146C63}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2170,6 +5154,2230 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2236,6 +7444,131 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5289,10 +10622,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5310,7 +10643,7 @@
     <col min="14" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -5324,10 +10657,13 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5371,7 +10707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100</v>
       </c>
@@ -5405,17 +10741,17 @@
       <c r="K3">
         <v>51</v>
       </c>
+      <c r="L3">
+        <v>26</v>
+      </c>
       <c r="M3">
-        <v>26</v>
+        <v>304.73363462803701</v>
       </c>
       <c r="N3">
-        <v>193.741496598639</v>
-      </c>
-      <c r="O3">
-        <v>0.91949535893892698</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.89642066305726698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>150</v>
       </c>
@@ -5449,17 +10785,17 @@
       <c r="K4">
         <v>76</v>
       </c>
+      <c r="L4">
+        <v>38</v>
+      </c>
       <c r="M4">
-        <v>38</v>
+        <v>453.42748924696599</v>
       </c>
       <c r="N4">
-        <v>290.15857365869698</v>
-      </c>
-      <c r="O4">
-        <v>0.89857076414688297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.88284014390404097</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>200</v>
       </c>
@@ -5493,17 +10829,17 @@
       <c r="K5">
         <v>101</v>
       </c>
+      <c r="L5">
+        <v>51</v>
+      </c>
       <c r="M5">
-        <v>51</v>
+        <v>624.12265005412303</v>
       </c>
       <c r="N5">
-        <v>394.00543895125901</v>
-      </c>
-      <c r="O5">
-        <v>0.88775300720369699</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.86557601259514305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>250</v>
       </c>
@@ -5537,17 +10873,17 @@
       <c r="K6">
         <v>126</v>
       </c>
+      <c r="L6">
+        <v>63</v>
+      </c>
       <c r="M6">
-        <v>63</v>
+        <v>786.83674037765195</v>
       </c>
       <c r="N6">
-        <v>497.87928451846</v>
-      </c>
-      <c r="O6">
-        <v>0.87966251076023905</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.85272049995469301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>300</v>
       </c>
@@ -5581,17 +10917,17 @@
       <c r="K7">
         <v>151</v>
       </c>
+      <c r="L7">
+        <v>76</v>
+      </c>
       <c r="M7">
-        <v>76</v>
+        <v>929.22510196026803</v>
       </c>
       <c r="N7">
-        <v>590.66630427965094</v>
-      </c>
-      <c r="O7">
-        <v>0.86578063411788697</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.84111112212305095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>350</v>
       </c>
@@ -5625,17 +10961,17 @@
       <c r="K8">
         <v>176</v>
       </c>
+      <c r="L8">
+        <v>88</v>
+      </c>
       <c r="M8">
-        <v>88</v>
+        <v>1112.8593374561699</v>
       </c>
       <c r="N8">
-        <v>703.56011554935799</v>
-      </c>
-      <c r="O8">
-        <v>0.86101986538374398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.833704714966926</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>400</v>
       </c>
@@ -5669,17 +11005,17 @@
       <c r="K9">
         <v>201</v>
       </c>
+      <c r="L9">
+        <v>101</v>
+      </c>
       <c r="M9">
-        <v>101</v>
+        <v>1257.4958828504</v>
       </c>
       <c r="N9">
-        <v>796.14946739559298</v>
-      </c>
-      <c r="O9">
-        <v>0.84554699534478095</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.81705023615893402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>450</v>
       </c>
@@ -5713,17 +11049,17 @@
       <c r="K10">
         <v>226</v>
       </c>
+      <c r="L10">
+        <v>113</v>
+      </c>
       <c r="M10">
-        <v>113</v>
+        <v>1407.9617263031901</v>
       </c>
       <c r="N10">
-        <v>888.04174262903098</v>
-      </c>
-      <c r="O10">
-        <v>0.84505513914688302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.81480364687160201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>500</v>
       </c>
@@ -5757,17 +11093,17 @@
       <c r="K11">
         <v>251</v>
       </c>
+      <c r="L11">
+        <v>126</v>
+      </c>
       <c r="M11">
-        <v>126</v>
+        <v>1578.33296089385</v>
       </c>
       <c r="N11">
-        <v>1005.55808656036</v>
-      </c>
-      <c r="O11">
-        <v>0.83216876160973197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.80366524187885102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>550</v>
       </c>
@@ -5801,17 +11137,17 @@
       <c r="K12">
         <v>276</v>
       </c>
+      <c r="L12">
+        <v>138</v>
+      </c>
       <c r="M12">
-        <v>138</v>
+        <v>1733.89959494292</v>
       </c>
       <c r="N12">
-        <v>1080.8431845135599</v>
-      </c>
-      <c r="O12">
-        <v>0.82724085521248603</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.78398940116437099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>600</v>
       </c>
@@ -5845,17 +11181,17 @@
       <c r="K13">
         <v>301</v>
       </c>
+      <c r="L13">
+        <v>151</v>
+      </c>
       <c r="M13">
-        <v>151</v>
+        <v>1950.44252675181</v>
       </c>
       <c r="N13">
-        <v>1230.0661790316999</v>
-      </c>
-      <c r="O13">
-        <v>0.81633068055681401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.78260186123821995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>650</v>
       </c>
@@ -5889,17 +11225,17 @@
       <c r="K14">
         <v>326</v>
       </c>
+      <c r="L14">
+        <v>163</v>
+      </c>
       <c r="M14">
-        <v>163</v>
+        <v>2116.7423391024199</v>
       </c>
       <c r="N14">
-        <v>1335.73637180275</v>
-      </c>
-      <c r="O14">
-        <v>0.81054945887323304</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.76985455271384495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>700</v>
       </c>
@@ -5933,17 +11269,17 @@
       <c r="K15">
         <v>351</v>
       </c>
+      <c r="L15">
+        <v>176</v>
+      </c>
       <c r="M15">
-        <v>176</v>
+        <v>2247.58631662688</v>
       </c>
       <c r="N15">
-        <v>1421.9931548218201</v>
-      </c>
-      <c r="O15">
-        <v>0.80910606481061997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.76788680936253995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>750</v>
       </c>
@@ -5977,17 +11313,17 @@
       <c r="K16">
         <v>376</v>
       </c>
+      <c r="L16">
+        <v>188</v>
+      </c>
       <c r="M16">
-        <v>188</v>
+        <v>2342.05089944458</v>
       </c>
       <c r="N16">
-        <v>1485.3922187171399</v>
-      </c>
-      <c r="O16">
-        <v>0.80818202926785099</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.76371456200163101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>800</v>
       </c>
@@ -6021,17 +11357,17 @@
       <c r="K17">
         <v>401</v>
       </c>
+      <c r="L17">
+        <v>201</v>
+      </c>
       <c r="M17">
-        <v>201</v>
+        <v>2550.2942769452902</v>
       </c>
       <c r="N17">
-        <v>1594.9957658217099</v>
-      </c>
-      <c r="O17">
-        <v>0.78915934215295402</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.74820537615530902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>850</v>
       </c>
@@ -6065,17 +11401,17 @@
       <c r="K18">
         <v>426</v>
       </c>
+      <c r="L18">
+        <v>213</v>
+      </c>
       <c r="M18">
-        <v>213</v>
+        <v>2645.5810469144999</v>
       </c>
       <c r="N18">
-        <v>1665.6149039028401</v>
-      </c>
-      <c r="O18">
-        <v>0.79900326205146799</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.75153159970777395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>900</v>
       </c>
@@ -6109,17 +11445,17 @@
       <c r="K19">
         <v>451</v>
       </c>
+      <c r="L19">
+        <v>226</v>
+      </c>
       <c r="M19">
-        <v>226</v>
+        <v>2897.3602707414602</v>
       </c>
       <c r="N19">
-        <v>1813.24433605032</v>
-      </c>
-      <c r="O19">
-        <v>0.77312842628669798</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.73069687415050699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>950</v>
       </c>
@@ -6153,17 +11489,17 @@
       <c r="K20">
         <v>476</v>
       </c>
+      <c r="L20">
+        <v>238</v>
+      </c>
       <c r="M20">
-        <v>238</v>
+        <v>3087.33034641022</v>
       </c>
       <c r="N20">
-        <v>1955.97895319856</v>
-      </c>
-      <c r="O20">
-        <v>0.760709234267398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.72199707916138001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1000</v>
       </c>
@@ -6197,17 +11533,17 @@
       <c r="K21">
         <v>501</v>
       </c>
+      <c r="L21">
+        <v>251</v>
+      </c>
       <c r="M21">
-        <v>251</v>
+        <v>3195.5842099309998</v>
       </c>
       <c r="N21">
-        <v>2028.2977959652501</v>
-      </c>
-      <c r="O21">
-        <v>0.77043383585538205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.72602424027047796</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G22">
         <v>1050</v>
       </c>
@@ -6218,7 +11554,7 @@
         <v>0.880811980393711</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G23">
         <v>1100</v>
       </c>
@@ -6229,7 +11565,7 @@
         <v>0.87917649482375804</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G24">
         <v>1150</v>
       </c>
@@ -6240,7 +11576,7 @@
         <v>0.87708083204965503</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G25">
         <v>1200</v>
       </c>
@@ -6251,7 +11587,7 @@
         <v>0.87496842719282297</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G26">
         <v>1250</v>
       </c>
@@ -6262,7 +11598,7 @@
         <v>0.87284370469372896</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G27">
         <v>1300</v>
       </c>
@@ -6273,7 +11609,7 @@
         <v>0.87127685104430896</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G28">
         <v>1350</v>
       </c>
@@ -6284,7 +11620,7 @@
         <v>0.86935880300833601</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G29">
         <v>1400</v>
       </c>
@@ -6295,7 +11631,7 @@
         <v>0.86752531487857898</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G30">
         <v>1450</v>
       </c>
@@ -6306,7 +11642,7 @@
         <v>0.86539853943910805</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G31">
         <v>1500</v>
       </c>
@@ -6317,7 +11653,7 @@
         <v>0.86346874008925301</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G32">
         <v>1550</v>
       </c>
@@ -6434,6 +11770,1914 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>286.92882677933</v>
+      </c>
+      <c r="C5">
+        <v>0.90368109907348604</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>215.970339792837</v>
+      </c>
+      <c r="F5">
+        <v>0.91584204535157598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>150</v>
+      </c>
+      <c r="B6">
+        <v>468.58886751144399</v>
+      </c>
+      <c r="C6">
+        <v>0.88585265692959403</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <v>330.89128856199198</v>
+      </c>
+      <c r="F6">
+        <v>0.895224719101123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>200</v>
+      </c>
+      <c r="B7">
+        <v>652.17359187442196</v>
+      </c>
+      <c r="C7">
+        <v>0.870370761032076</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7">
+        <v>443.05993789793899</v>
+      </c>
+      <c r="F7">
+        <v>0.88485022030173899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>250</v>
+      </c>
+      <c r="B8">
+        <v>844.50768219046995</v>
+      </c>
+      <c r="C8">
+        <v>0.85407519283481304</v>
+      </c>
+      <c r="D8">
+        <v>250</v>
+      </c>
+      <c r="E8">
+        <v>555.56525672035002</v>
+      </c>
+      <c r="F8">
+        <v>0.87509326720505598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>300</v>
+      </c>
+      <c r="B9">
+        <v>1056.2344848212899</v>
+      </c>
+      <c r="C9">
+        <v>0.83923077031986204</v>
+      </c>
+      <c r="D9">
+        <v>300</v>
+      </c>
+      <c r="E9">
+        <v>672.47833952204098</v>
+      </c>
+      <c r="F9">
+        <v>0.86585223926241395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>350</v>
+      </c>
+      <c r="B10">
+        <v>1260.4131162168101</v>
+      </c>
+      <c r="C10">
+        <v>0.82409798047299698</v>
+      </c>
+      <c r="D10">
+        <v>350</v>
+      </c>
+      <c r="E10">
+        <v>787.20945136392697</v>
+      </c>
+      <c r="F10">
+        <v>0.85753078702654895</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>400</v>
+      </c>
+      <c r="B11">
+        <v>1465.51302002282</v>
+      </c>
+      <c r="C11">
+        <v>0.80872450106469695</v>
+      </c>
+      <c r="D11">
+        <v>400</v>
+      </c>
+      <c r="E11">
+        <v>904.56120129350302</v>
+      </c>
+      <c r="F11">
+        <v>0.84994329637096699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>450</v>
+      </c>
+      <c r="B12">
+        <v>1678.3793738489801</v>
+      </c>
+      <c r="C12">
+        <v>0.79606192942415699</v>
+      </c>
+      <c r="D12">
+        <v>450</v>
+      </c>
+      <c r="E12">
+        <v>1026.56734857018</v>
+      </c>
+      <c r="F12">
+        <v>0.84232621505753902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>500</v>
+      </c>
+      <c r="B13">
+        <v>1895.8636424640899</v>
+      </c>
+      <c r="C13">
+        <v>0.77964764464026803</v>
+      </c>
+      <c r="D13">
+        <v>500</v>
+      </c>
+      <c r="E13">
+        <v>1173.1650195166501</v>
+      </c>
+      <c r="F13">
+        <v>0.82518600347725601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>550</v>
+      </c>
+      <c r="B14">
+        <v>2169.9047619047601</v>
+      </c>
+      <c r="C14">
+        <v>0.75492326958363498</v>
+      </c>
+      <c r="D14">
+        <v>550</v>
+      </c>
+      <c r="E14">
+        <v>1303.20402232575</v>
+      </c>
+      <c r="F14">
+        <v>0.81729014701884695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>600</v>
+      </c>
+      <c r="B15">
+        <v>2493.7911554417801</v>
+      </c>
+      <c r="C15">
+        <v>0.72477906114081103</v>
+      </c>
+      <c r="D15">
+        <v>600</v>
+      </c>
+      <c r="E15">
+        <v>1431.21377912867</v>
+      </c>
+      <c r="F15">
+        <v>0.80983616827881399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>650</v>
+      </c>
+      <c r="B16">
+        <v>2805.5769612711001</v>
+      </c>
+      <c r="C16">
+        <v>0.70398504043584598</v>
+      </c>
+      <c r="D16">
+        <v>650</v>
+      </c>
+      <c r="E16">
+        <v>1561.41041229136</v>
+      </c>
+      <c r="F16">
+        <v>0.80269299763274704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>700</v>
+      </c>
+      <c r="B17">
+        <v>3097.8245614035</v>
+      </c>
+      <c r="C17">
+        <v>0.68826026045442101</v>
+      </c>
+      <c r="D17">
+        <v>700</v>
+      </c>
+      <c r="E17">
+        <v>1686.19277827514</v>
+      </c>
+      <c r="F17">
+        <v>0.79541043941418899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>750</v>
+      </c>
+      <c r="B18">
+        <v>3377.0212765957399</v>
+      </c>
+      <c r="C18">
+        <v>0.67345767544853197</v>
+      </c>
+      <c r="D18">
+        <v>750</v>
+      </c>
+      <c r="E18">
+        <v>1806.6351195805</v>
+      </c>
+      <c r="F18">
+        <v>0.78901701675199298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>800</v>
+      </c>
+      <c r="B19">
+        <v>3697.4427430964502</v>
+      </c>
+      <c r="C19">
+        <v>0.65640867813292803</v>
+      </c>
+      <c r="D19">
+        <v>800</v>
+      </c>
+      <c r="E19">
+        <v>1924.0098065922</v>
+      </c>
+      <c r="F19">
+        <v>0.78295900207276103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>850</v>
+      </c>
+      <c r="B20">
+        <v>4034.2938740539698</v>
+      </c>
+      <c r="C20">
+        <v>0.635827136756977</v>
+      </c>
+      <c r="D20">
+        <v>850</v>
+      </c>
+      <c r="E20">
+        <v>2036.3384748450301</v>
+      </c>
+      <c r="F20">
+        <v>0.77780442274148198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>900</v>
+      </c>
+      <c r="B21">
+        <v>4352.5127099060201</v>
+      </c>
+      <c r="C21">
+        <v>0.62116485960719403</v>
+      </c>
+      <c r="D21">
+        <v>900</v>
+      </c>
+      <c r="E21">
+        <v>2147.3101770920398</v>
+      </c>
+      <c r="F21">
+        <v>0.77309441118838296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>950</v>
+      </c>
+      <c r="B22">
+        <v>4671.3227513227503</v>
+      </c>
+      <c r="C22">
+        <v>0.61008128228071701</v>
+      </c>
+      <c r="D22">
+        <v>950</v>
+      </c>
+      <c r="E22">
+        <v>2276.5640612409302</v>
+      </c>
+      <c r="F22">
+        <v>0.76704761689017698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1000</v>
+      </c>
+      <c r="B23">
+        <v>5029.7596581805201</v>
+      </c>
+      <c r="C23">
+        <v>0.59931385777228996</v>
+      </c>
+      <c r="D23">
+        <v>1000</v>
+      </c>
+      <c r="E23">
+        <v>2395.8751696065101</v>
+      </c>
+      <c r="F23">
+        <v>0.76190917791772295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>100</v>
+      </c>
+      <c r="B30">
+        <v>73.319198299643602</v>
+      </c>
+      <c r="C30">
+        <v>0.91247274544671897</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>101.976054604453</v>
+      </c>
+      <c r="F30">
+        <v>0.92257292893711396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>150</v>
+      </c>
+      <c r="B31">
+        <v>1240.32663095969</v>
+      </c>
+      <c r="C31">
+        <v>0.72688484703470402</v>
+      </c>
+      <c r="D31">
+        <v>150</v>
+      </c>
+      <c r="E31">
+        <v>146.59312491892501</v>
+      </c>
+      <c r="F31">
+        <v>0.918931862200978</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>200</v>
+      </c>
+      <c r="B32">
+        <v>1254.3136210264599</v>
+      </c>
+      <c r="C32">
+        <v>0.71715943134967297</v>
+      </c>
+      <c r="D32">
+        <v>200</v>
+      </c>
+      <c r="E32">
+        <v>208.54458083898601</v>
+      </c>
+      <c r="F32">
+        <v>0.89089857200299005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>250</v>
+      </c>
+      <c r="B33">
+        <v>1341.18965107999</v>
+      </c>
+      <c r="C33">
+        <v>0.59967298075616104</v>
+      </c>
+      <c r="D33">
+        <v>250</v>
+      </c>
+      <c r="E33">
+        <v>261.57954187730297</v>
+      </c>
+      <c r="F33">
+        <v>0.88299004394708203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>300</v>
+      </c>
+      <c r="B34">
+        <v>1636.28865979381</v>
+      </c>
+      <c r="C34">
+        <v>0.67201990927419297</v>
+      </c>
+      <c r="D34">
+        <v>300</v>
+      </c>
+      <c r="E34">
+        <v>306.898551984096</v>
+      </c>
+      <c r="F34">
+        <v>0.87714153537286998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>350</v>
+      </c>
+      <c r="B35">
+        <v>164256.74418604601</v>
+      </c>
+      <c r="C35">
+        <v>4.1729411131750598E-2</v>
+      </c>
+      <c r="D35">
+        <v>350</v>
+      </c>
+      <c r="E35">
+        <v>373.48844587806002</v>
+      </c>
+      <c r="F35">
+        <v>0.87096324670396796</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>400</v>
+      </c>
+      <c r="B36">
+        <v>2115.4743541744601</v>
+      </c>
+      <c r="C36">
+        <v>0.62699198928506705</v>
+      </c>
+      <c r="D36">
+        <v>400</v>
+      </c>
+      <c r="E36">
+        <v>399.453673985889</v>
+      </c>
+      <c r="F36">
+        <v>0.85364835821402596</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>450</v>
+      </c>
+      <c r="B37">
+        <v>4973.0962858651601</v>
+      </c>
+      <c r="C37">
+        <v>0.43109539235230099</v>
+      </c>
+      <c r="D37">
+        <v>450</v>
+      </c>
+      <c r="E37">
+        <v>438.60278821374197</v>
+      </c>
+      <c r="F37">
+        <v>0.86172214797027902</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>500</v>
+      </c>
+      <c r="B38">
+        <v>3621.6074862197102</v>
+      </c>
+      <c r="C38">
+        <v>0.47012171812703801</v>
+      </c>
+      <c r="D38">
+        <v>500</v>
+      </c>
+      <c r="E38">
+        <v>520.27844278295402</v>
+      </c>
+      <c r="F38">
+        <v>0.84940864698486696</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>550</v>
+      </c>
+      <c r="B39">
+        <v>3081.2694950376199</v>
+      </c>
+      <c r="C39">
+        <v>0.57501536165730305</v>
+      </c>
+      <c r="D39">
+        <v>550</v>
+      </c>
+      <c r="E39">
+        <v>513.45158476301197</v>
+      </c>
+      <c r="F39">
+        <v>0.82840844735411301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>600</v>
+      </c>
+      <c r="B40">
+        <v>1837.6583842851501</v>
+      </c>
+      <c r="C40">
+        <v>0.64961408260465703</v>
+      </c>
+      <c r="D40">
+        <v>600</v>
+      </c>
+      <c r="E40">
+        <v>654.34871224754397</v>
+      </c>
+      <c r="F40">
+        <v>0.82902277206415298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>650</v>
+      </c>
+      <c r="B41">
+        <v>4537.0419142444198</v>
+      </c>
+      <c r="C41">
+        <v>0.39654645874863997</v>
+      </c>
+      <c r="D41">
+        <v>650</v>
+      </c>
+      <c r="E41">
+        <v>695.90029065471197</v>
+      </c>
+      <c r="F41">
+        <v>0.81505222963483104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>700</v>
+      </c>
+      <c r="B42">
+        <v>1284189.0909090899</v>
+      </c>
+      <c r="C42">
+        <v>5.9723929073033696E-3</v>
+      </c>
+      <c r="D42">
+        <v>700</v>
+      </c>
+      <c r="E42">
+        <v>740.69055921138795</v>
+      </c>
+      <c r="F42">
+        <v>0.82580160242614997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>750</v>
+      </c>
+      <c r="B43">
+        <v>3621.6074862197102</v>
+      </c>
+      <c r="C43">
+        <v>0.47012171812703801</v>
+      </c>
+      <c r="D43">
+        <v>750</v>
+      </c>
+      <c r="E43">
+        <v>722.063025532241</v>
+      </c>
+      <c r="F43">
+        <v>0.82227893371692595</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>800</v>
+      </c>
+      <c r="B44">
+        <v>2156.9827454573201</v>
+      </c>
+      <c r="C44">
+        <v>0.62256404466065596</v>
+      </c>
+      <c r="D44">
+        <v>800</v>
+      </c>
+      <c r="E44">
+        <v>738.21326853230903</v>
+      </c>
+      <c r="F44">
+        <v>0.80246851922118501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>850</v>
+      </c>
+      <c r="B45" s="6">
+        <v>14126080</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>850</v>
+      </c>
+      <c r="E45">
+        <v>790.97821826530003</v>
+      </c>
+      <c r="F45">
+        <v>0.82872385686616501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>900</v>
+      </c>
+      <c r="B46">
+        <v>88564.764890282095</v>
+      </c>
+      <c r="C46">
+        <v>1.13098609097499E-2</v>
+      </c>
+      <c r="D46">
+        <v>900</v>
+      </c>
+      <c r="E46">
+        <v>893.63150403289501</v>
+      </c>
+      <c r="F46">
+        <v>0.78599087644980004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>950</v>
+      </c>
+      <c r="B47">
+        <v>4552.3944569771102</v>
+      </c>
+      <c r="C47">
+        <v>0.39057406584133703</v>
+      </c>
+      <c r="D47">
+        <v>950</v>
+      </c>
+      <c r="E47">
+        <v>1032.6836757072799</v>
+      </c>
+      <c r="F47">
+        <v>0.78183526498504896</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1000</v>
+      </c>
+      <c r="B48">
+        <v>4552.3944569771102</v>
+      </c>
+      <c r="C48">
+        <v>0.39057406584133703</v>
+      </c>
+      <c r="D48">
+        <v>1000</v>
+      </c>
+      <c r="E48">
+        <v>1017.03301054753</v>
+      </c>
+      <c r="F48">
+        <v>0.78516662088845601</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>100</v>
+      </c>
+      <c r="B57">
+        <v>31.377657040108101</v>
+      </c>
+      <c r="C57">
+        <v>0.95219526577790803</v>
+      </c>
+      <c r="D57">
+        <v>100</v>
+      </c>
+      <c r="E57">
+        <v>32.9150356037728</v>
+      </c>
+      <c r="F57">
+        <v>0.95450623952292502</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>150</v>
+      </c>
+      <c r="B58">
+        <v>45.122524240522097</v>
+      </c>
+      <c r="C58">
+        <v>0.944475502050108</v>
+      </c>
+      <c r="D58">
+        <v>150</v>
+      </c>
+      <c r="E58">
+        <v>48.139421553225297</v>
+      </c>
+      <c r="F58">
+        <v>0.94702695298341699</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>200</v>
+      </c>
+      <c r="B59">
+        <v>62.944555099567303</v>
+      </c>
+      <c r="C59">
+        <v>0.93939252786335603</v>
+      </c>
+      <c r="D59">
+        <v>200</v>
+      </c>
+      <c r="E59">
+        <v>68.818411232254704</v>
+      </c>
+      <c r="F59">
+        <v>0.94302453334541503</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>250</v>
+      </c>
+      <c r="B60">
+        <v>80.524667166403901</v>
+      </c>
+      <c r="C60">
+        <v>0.93485220245106904</v>
+      </c>
+      <c r="D60">
+        <v>250</v>
+      </c>
+      <c r="E60">
+        <v>87.987193781260302</v>
+      </c>
+      <c r="F60">
+        <v>0.93914886507792605</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>300</v>
+      </c>
+      <c r="B61">
+        <v>99.210450539031498</v>
+      </c>
+      <c r="C61">
+        <v>0.93089629253126105</v>
+      </c>
+      <c r="D61">
+        <v>300</v>
+      </c>
+      <c r="E61">
+        <v>110.465719145275</v>
+      </c>
+      <c r="F61">
+        <v>0.93521847533073499</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>350</v>
+      </c>
+      <c r="B62">
+        <v>119.95499377980001</v>
+      </c>
+      <c r="C62">
+        <v>0.92685214157076801</v>
+      </c>
+      <c r="D62">
+        <v>350</v>
+      </c>
+      <c r="E62">
+        <v>136.14055377261201</v>
+      </c>
+      <c r="F62">
+        <v>0.93150520172616802</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>400</v>
+      </c>
+      <c r="B63">
+        <v>142.55304333785699</v>
+      </c>
+      <c r="C63">
+        <v>0.92277542672843405</v>
+      </c>
+      <c r="D63">
+        <v>400</v>
+      </c>
+      <c r="E63">
+        <v>165.444675431148</v>
+      </c>
+      <c r="F63">
+        <v>0.92124258817732796</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>450</v>
+      </c>
+      <c r="B64">
+        <v>165.32656082674501</v>
+      </c>
+      <c r="C64">
+        <v>0.91873973529811503</v>
+      </c>
+      <c r="D64">
+        <v>450</v>
+      </c>
+      <c r="E64">
+        <v>194.716252911905</v>
+      </c>
+      <c r="F64">
+        <v>0.91296665458499404</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>500</v>
+      </c>
+      <c r="B65">
+        <v>184.863669377793</v>
+      </c>
+      <c r="C65">
+        <v>0.91469055817325096</v>
+      </c>
+      <c r="D65">
+        <v>500</v>
+      </c>
+      <c r="E65">
+        <v>219.93305204814001</v>
+      </c>
+      <c r="F65">
+        <v>0.90798707072308804</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>550</v>
+      </c>
+      <c r="B66">
+        <v>200.45380691211199</v>
+      </c>
+      <c r="C66">
+        <v>0.91157787581551197</v>
+      </c>
+      <c r="D66">
+        <v>550</v>
+      </c>
+      <c r="E66">
+        <v>239.79086742488499</v>
+      </c>
+      <c r="F66">
+        <v>0.903652782654494</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>600</v>
+      </c>
+      <c r="B67">
+        <v>215.04646932111399</v>
+      </c>
+      <c r="C67">
+        <v>0.90930151889271404</v>
+      </c>
+      <c r="D67">
+        <v>600</v>
+      </c>
+      <c r="E67">
+        <v>258.34325478469901</v>
+      </c>
+      <c r="F67">
+        <v>0.90066773655536403</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>650</v>
+      </c>
+      <c r="B68">
+        <v>229.51136095924301</v>
+      </c>
+      <c r="C68">
+        <v>0.90728946034568603</v>
+      </c>
+      <c r="D68">
+        <v>650</v>
+      </c>
+      <c r="E68">
+        <v>276.97109917258098</v>
+      </c>
+      <c r="F68">
+        <v>0.89792759208499395</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>700</v>
+      </c>
+      <c r="B69">
+        <v>242.94991744634001</v>
+      </c>
+      <c r="C69">
+        <v>0.905407940490213</v>
+      </c>
+      <c r="D69">
+        <v>700</v>
+      </c>
+      <c r="E69">
+        <v>294.65858720705802</v>
+      </c>
+      <c r="F69">
+        <v>0.89575706777817998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>750</v>
+      </c>
+      <c r="B70">
+        <v>256.04640203008802</v>
+      </c>
+      <c r="C70">
+        <v>0.90325497236317498</v>
+      </c>
+      <c r="D70">
+        <v>750</v>
+      </c>
+      <c r="E70">
+        <v>311.64480723622501</v>
+      </c>
+      <c r="F70">
+        <v>0.89359280847906797</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>800</v>
+      </c>
+      <c r="B71">
+        <v>269.41458065131297</v>
+      </c>
+      <c r="C71">
+        <v>0.90124822314470798</v>
+      </c>
+      <c r="D71">
+        <v>800</v>
+      </c>
+      <c r="E71">
+        <v>328.50966849222601</v>
+      </c>
+      <c r="F71">
+        <v>0.89135644849809703</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>850</v>
+      </c>
+      <c r="B72">
+        <v>282.22808279389398</v>
+      </c>
+      <c r="C72">
+        <v>0.89903529500045298</v>
+      </c>
+      <c r="D72">
+        <v>850</v>
+      </c>
+      <c r="E72">
+        <v>344.90868248852399</v>
+      </c>
+      <c r="F72">
+        <v>0.88937497168358104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>900</v>
+      </c>
+      <c r="B73">
+        <v>294.45589752675897</v>
+      </c>
+      <c r="C73">
+        <v>0.89722148678189495</v>
+      </c>
+      <c r="D73">
+        <v>900</v>
+      </c>
+      <c r="E73">
+        <v>361.21615056128002</v>
+      </c>
+      <c r="F73">
+        <v>0.88718448430137697</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>950</v>
+      </c>
+      <c r="B74">
+        <v>306.698654971395</v>
+      </c>
+      <c r="C74">
+        <v>0.89536017777047805</v>
+      </c>
+      <c r="D74">
+        <v>950</v>
+      </c>
+      <c r="E74">
+        <v>378.30958757364698</v>
+      </c>
+      <c r="F74">
+        <v>0.88503558665956805</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1000</v>
+      </c>
+      <c r="B75">
+        <v>318.90913195620197</v>
+      </c>
+      <c r="C75">
+        <v>0.89330992745333404</v>
+      </c>
+      <c r="D75">
+        <v>1000</v>
+      </c>
+      <c r="E75">
+        <v>395.47250101485099</v>
+      </c>
+      <c r="F75">
+        <v>0.88288406974900302</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" t="s">
+        <v>9</v>
+      </c>
+      <c r="J85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>100</v>
+      </c>
+      <c r="B86">
+        <v>51</v>
+      </c>
+      <c r="C86">
+        <v>26</v>
+      </c>
+      <c r="D86">
+        <v>288.56708033297502</v>
+      </c>
+      <c r="E86">
+        <v>0.88924899901458798</v>
+      </c>
+      <c r="F86">
+        <v>100</v>
+      </c>
+      <c r="G86">
+        <v>51</v>
+      </c>
+      <c r="H86">
+        <v>26</v>
+      </c>
+      <c r="I86">
+        <v>304.73363462803701</v>
+      </c>
+      <c r="J86">
+        <v>0.89642066305726698</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>150</v>
+      </c>
+      <c r="B87">
+        <v>76</v>
+      </c>
+      <c r="C87">
+        <v>38</v>
+      </c>
+      <c r="D87">
+        <v>863.030303030303</v>
+      </c>
+      <c r="E87">
+        <v>0.75678149918448701</v>
+      </c>
+      <c r="F87">
+        <v>150</v>
+      </c>
+      <c r="G87">
+        <v>76</v>
+      </c>
+      <c r="H87">
+        <v>38</v>
+      </c>
+      <c r="I87">
+        <v>453.42748924696599</v>
+      </c>
+      <c r="J87">
+        <v>0.88284014390404097</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>200</v>
+      </c>
+      <c r="B88">
+        <v>101</v>
+      </c>
+      <c r="C88">
+        <v>51</v>
+      </c>
+      <c r="D88">
+        <v>1123.5250139187101</v>
+      </c>
+      <c r="E88">
+        <v>0.75816196000588898</v>
+      </c>
+      <c r="F88">
+        <v>200</v>
+      </c>
+      <c r="G88">
+        <v>101</v>
+      </c>
+      <c r="H88">
+        <v>51</v>
+      </c>
+      <c r="I88">
+        <v>624.12265005412303</v>
+      </c>
+      <c r="J88">
+        <v>0.86557601259514305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>250</v>
+      </c>
+      <c r="B89">
+        <v>126</v>
+      </c>
+      <c r="C89">
+        <v>63</v>
+      </c>
+      <c r="D89">
+        <v>1398.69102430813</v>
+      </c>
+      <c r="E89">
+        <v>0.70024387515857101</v>
+      </c>
+      <c r="F89">
+        <v>250</v>
+      </c>
+      <c r="G89">
+        <v>126</v>
+      </c>
+      <c r="H89">
+        <v>63</v>
+      </c>
+      <c r="I89">
+        <v>786.83674037765195</v>
+      </c>
+      <c r="J89">
+        <v>0.85272049995469301</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>300</v>
+      </c>
+      <c r="B90">
+        <v>151</v>
+      </c>
+      <c r="C90">
+        <v>76</v>
+      </c>
+      <c r="D90">
+        <v>1706.76976983024</v>
+      </c>
+      <c r="E90">
+        <v>0.757550077586988</v>
+      </c>
+      <c r="F90">
+        <v>300</v>
+      </c>
+      <c r="G90">
+        <v>151</v>
+      </c>
+      <c r="H90">
+        <v>76</v>
+      </c>
+      <c r="I90">
+        <v>929.22510196026803</v>
+      </c>
+      <c r="J90">
+        <v>0.84111112212305095</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>350</v>
+      </c>
+      <c r="B91">
+        <v>176</v>
+      </c>
+      <c r="C91">
+        <v>88</v>
+      </c>
+      <c r="D91">
+        <v>2326.81271619173</v>
+      </c>
+      <c r="E91">
+        <v>0.48931278174836801</v>
+      </c>
+      <c r="F91">
+        <v>350</v>
+      </c>
+      <c r="G91">
+        <v>176</v>
+      </c>
+      <c r="H91">
+        <v>88</v>
+      </c>
+      <c r="I91">
+        <v>1112.8593374561699</v>
+      </c>
+      <c r="J91">
+        <v>0.833704714966926</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>400</v>
+      </c>
+      <c r="B92">
+        <v>201</v>
+      </c>
+      <c r="C92">
+        <v>101</v>
+      </c>
+      <c r="D92">
+        <v>2270.3439408550298</v>
+      </c>
+      <c r="E92">
+        <v>0.31522028758155102</v>
+      </c>
+      <c r="F92">
+        <v>400</v>
+      </c>
+      <c r="G92">
+        <v>201</v>
+      </c>
+      <c r="H92">
+        <v>101</v>
+      </c>
+      <c r="I92">
+        <v>1257.4958828504</v>
+      </c>
+      <c r="J92">
+        <v>0.81705023615893402</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>450</v>
+      </c>
+      <c r="B93">
+        <v>226</v>
+      </c>
+      <c r="C93">
+        <v>113</v>
+      </c>
+      <c r="D93">
+        <v>2937.1202827736702</v>
+      </c>
+      <c r="E93">
+        <v>0.65685384763501198</v>
+      </c>
+      <c r="F93">
+        <v>450</v>
+      </c>
+      <c r="G93">
+        <v>226</v>
+      </c>
+      <c r="H93">
+        <v>113</v>
+      </c>
+      <c r="I93">
+        <v>1407.9617263031901</v>
+      </c>
+      <c r="J93">
+        <v>0.81480364687160201</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>500</v>
+      </c>
+      <c r="B94">
+        <v>251</v>
+      </c>
+      <c r="C94">
+        <v>126</v>
+      </c>
+      <c r="D94">
+        <v>3292.0251689582801</v>
+      </c>
+      <c r="E94">
+        <v>9.7739358689742595E-2</v>
+      </c>
+      <c r="F94">
+        <v>500</v>
+      </c>
+      <c r="G94">
+        <v>251</v>
+      </c>
+      <c r="H94">
+        <v>126</v>
+      </c>
+      <c r="I94">
+        <v>1578.33296089385</v>
+      </c>
+      <c r="J94">
+        <v>0.80366524187885102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>550</v>
+      </c>
+      <c r="B95">
+        <v>276</v>
+      </c>
+      <c r="C95">
+        <v>138</v>
+      </c>
+      <c r="D95">
+        <v>3308.2154566744698</v>
+      </c>
+      <c r="E95">
+        <v>0.225924566475625</v>
+      </c>
+      <c r="F95">
+        <v>550</v>
+      </c>
+      <c r="G95">
+        <v>276</v>
+      </c>
+      <c r="H95">
+        <v>138</v>
+      </c>
+      <c r="I95">
+        <v>1733.89959494292</v>
+      </c>
+      <c r="J95">
+        <v>0.78398940116437099</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>600</v>
+      </c>
+      <c r="B96">
+        <v>301</v>
+      </c>
+      <c r="C96">
+        <v>151</v>
+      </c>
+      <c r="D96">
+        <v>2965.1721242653198</v>
+      </c>
+      <c r="E96">
+        <v>0.56276451074891198</v>
+      </c>
+      <c r="F96">
+        <v>600</v>
+      </c>
+      <c r="G96">
+        <v>301</v>
+      </c>
+      <c r="H96">
+        <v>151</v>
+      </c>
+      <c r="I96">
+        <v>1950.44252675181</v>
+      </c>
+      <c r="J96">
+        <v>0.78260186123821995</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>650</v>
+      </c>
+      <c r="B97">
+        <v>326</v>
+      </c>
+      <c r="C97">
+        <v>163</v>
+      </c>
+      <c r="D97">
+        <v>3872.2807017543801</v>
+      </c>
+      <c r="E97">
+        <v>0.57154642335311701</v>
+      </c>
+      <c r="F97">
+        <v>650</v>
+      </c>
+      <c r="G97">
+        <v>326</v>
+      </c>
+      <c r="H97">
+        <v>163</v>
+      </c>
+      <c r="I97">
+        <v>2116.7423391024199</v>
+      </c>
+      <c r="J97">
+        <v>0.76985455271384495</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>700</v>
+      </c>
+      <c r="B98">
+        <v>351</v>
+      </c>
+      <c r="C98">
+        <v>176</v>
+      </c>
+      <c r="D98">
+        <v>5271.9089382347402</v>
+      </c>
+      <c r="E98">
+        <v>2.6589471389090201E-2</v>
+      </c>
+      <c r="F98">
+        <v>700</v>
+      </c>
+      <c r="G98">
+        <v>351</v>
+      </c>
+      <c r="H98">
+        <v>176</v>
+      </c>
+      <c r="I98">
+        <v>2247.58631662688</v>
+      </c>
+      <c r="J98">
+        <v>0.76788680936253995</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>750</v>
+      </c>
+      <c r="B99">
+        <v>376</v>
+      </c>
+      <c r="C99">
+        <v>188</v>
+      </c>
+      <c r="D99">
+        <v>4207.3209233060297</v>
+      </c>
+      <c r="E99">
+        <v>0.494781779517035</v>
+      </c>
+      <c r="F99">
+        <v>750</v>
+      </c>
+      <c r="G99">
+        <v>376</v>
+      </c>
+      <c r="H99">
+        <v>188</v>
+      </c>
+      <c r="I99">
+        <v>2342.05089944458</v>
+      </c>
+      <c r="J99">
+        <v>0.76371456200163101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>800</v>
+      </c>
+      <c r="B100">
+        <v>401</v>
+      </c>
+      <c r="C100">
+        <v>201</v>
+      </c>
+      <c r="D100">
+        <v>3859.05750580521</v>
+      </c>
+      <c r="E100">
+        <v>0.55379801048840105</v>
+      </c>
+      <c r="F100">
+        <v>800</v>
+      </c>
+      <c r="G100">
+        <v>401</v>
+      </c>
+      <c r="H100">
+        <v>201</v>
+      </c>
+      <c r="I100">
+        <v>2550.2942769452902</v>
+      </c>
+      <c r="J100">
+        <v>0.74820537615530902</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>850</v>
+      </c>
+      <c r="B101">
+        <v>426</v>
+      </c>
+      <c r="C101">
+        <v>213</v>
+      </c>
+      <c r="D101">
+        <v>5821.5866474345703</v>
+      </c>
+      <c r="E101">
+        <v>0.34959256212622303</v>
+      </c>
+      <c r="F101">
+        <v>850</v>
+      </c>
+      <c r="G101">
+        <v>426</v>
+      </c>
+      <c r="H101">
+        <v>213</v>
+      </c>
+      <c r="I101">
+        <v>2645.5810469144999</v>
+      </c>
+      <c r="J101">
+        <v>0.75153159970777395</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>900</v>
+      </c>
+      <c r="B102">
+        <v>451</v>
+      </c>
+      <c r="C102">
+        <v>226</v>
+      </c>
+      <c r="D102">
+        <v>6014.9371939535804</v>
+      </c>
+      <c r="E102">
+        <v>0.450860571368702</v>
+      </c>
+      <c r="F102">
+        <v>900</v>
+      </c>
+      <c r="G102">
+        <v>451</v>
+      </c>
+      <c r="H102">
+        <v>226</v>
+      </c>
+      <c r="I102">
+        <v>2897.3602707414602</v>
+      </c>
+      <c r="J102">
+        <v>0.73069687415050699</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>950</v>
+      </c>
+      <c r="B103">
+        <v>476</v>
+      </c>
+      <c r="C103">
+        <v>238</v>
+      </c>
+      <c r="D103">
+        <v>5804.8407643312103</v>
+      </c>
+      <c r="E103">
+        <v>0.58139621890857196</v>
+      </c>
+      <c r="F103">
+        <v>950</v>
+      </c>
+      <c r="G103">
+        <v>476</v>
+      </c>
+      <c r="H103">
+        <v>238</v>
+      </c>
+      <c r="I103">
+        <v>3087.33034641022</v>
+      </c>
+      <c r="J103">
+        <v>0.72199707916138001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1000</v>
+      </c>
+      <c r="B104">
+        <v>501</v>
+      </c>
+      <c r="C104">
+        <v>251</v>
+      </c>
+      <c r="D104">
+        <v>6180.7394443229005</v>
+      </c>
+      <c r="E104">
+        <v>0.48613812182856098</v>
+      </c>
+      <c r="F104">
+        <v>1000</v>
+      </c>
+      <c r="G104">
+        <v>501</v>
+      </c>
+      <c r="H104">
+        <v>251</v>
+      </c>
+      <c r="I104">
+        <v>3195.5842099309998</v>
+      </c>
+      <c r="J104">
+        <v>0.72602424027047796</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W25"/>
   <sheetViews>
@@ -7938,11 +15182,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -9759,11 +17003,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/graphs/newCDC.xlsx
+++ b/graphs/newCDC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,14 +222,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1316,7 +1315,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1387,61 +1385,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>73.319198299643602</c:v>
+                  <c:v>50.737040595508503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1240.32663095969</c:v>
+                  <c:v>87.698773863107206</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1254.3136210264599</c:v>
+                  <c:v>67.820918453081106</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1341.18965107999</c:v>
+                  <c:v>201.32371804007599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1636.28865979381</c:v>
+                  <c:v>106.678749707363</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>164256.74418604601</c:v>
+                  <c:v>408.64614672529501</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2115.4743541744601</c:v>
+                  <c:v>258.95418007167598</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4973.0962858651601</c:v>
+                  <c:v>686.88240013614995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3621.6074862197102</c:v>
+                  <c:v>223.67318502097999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081.2694950376199</c:v>
+                  <c:v>441.15738355116201</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1837.6583842851501</c:v>
+                  <c:v>124.219717987838</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4537.0419142444198</c:v>
+                  <c:v>158.18235771674901</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1284189.0909090899</c:v>
+                  <c:v>1028.36093619189</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3621.6074862197102</c:v>
+                  <c:v>305.88510426365798</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2156.9827454573201</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>14126080</c:v>
+                  <c:v>1745.2532740301399</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>805.93809727570897</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>88564.764890282095</c:v>
+                  <c:v>1813.36071887034</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4552.3944569771102</c:v>
+                  <c:v>473.39410187667499</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4552.3944569771102</c:v>
+                  <c:v>233.974277219687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1453,61 +1451,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.91247274544671897</c:v>
+                  <c:v>0.94417053421756003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72688484703470402</c:v>
+                  <c:v>0.91433338194318503</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71715943134967297</c:v>
+                  <c:v>0.930415904483055</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59967298075616104</c:v>
+                  <c:v>0.89749176700117705</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67201990927419297</c:v>
+                  <c:v>0.90972134519979997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1729411131750598E-2</c:v>
+                  <c:v>0.86152106599990896</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.62699198928506705</c:v>
+                  <c:v>0.88079838851259495</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.43109539235230099</c:v>
+                  <c:v>0.82217918913102495</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47012171812703801</c:v>
+                  <c:v>0.89186189657711101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57501536165730305</c:v>
+                  <c:v>0.84738083742977499</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.64961408260465703</c:v>
+                  <c:v>0.90553267431587503</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.39654645874863997</c:v>
+                  <c:v>0.89525399119925697</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.9723929073033696E-3</c:v>
+                  <c:v>0.78186078515766499</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.47012171812703801</c:v>
+                  <c:v>0.86400873419943802</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.62256404466065596</c:v>
+                  <c:v>0.71798280202292497</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.81614641146022104</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.13098609097499E-2</c:v>
+                  <c:v>0.70777462678959702</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.39057406584133703</c:v>
+                  <c:v>0.84565020869200802</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.39057406584133703</c:v>
+                  <c:v>0.87836869818095298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1701,7 +1699,7 @@
         <c:axId val="338160896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5000"/>
+          <c:max val="2000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1750,7 +1748,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1798,7 +1795,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1868,7 +1865,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1949,7 +1945,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2061,7 +2056,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2489,7 +2483,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2607,7 +2600,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2688,7 +2680,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2795,7 +2786,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3203,7 +3193,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3321,7 +3310,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3402,7 +3390,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3509,7 +3496,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3917,7 +3903,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4035,7 +4020,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4116,7 +4100,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7679,6 +7662,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7714,6 +7714,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10624,7 +10641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -11773,8 +11790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12233,10 +12250,10 @@
         <v>100</v>
       </c>
       <c r="B30">
-        <v>73.319198299643602</v>
+        <v>50.737040595508503</v>
       </c>
       <c r="C30">
-        <v>0.91247274544671897</v>
+        <v>0.94417053421756003</v>
       </c>
       <c r="D30">
         <v>100</v>
@@ -12253,10 +12270,10 @@
         <v>150</v>
       </c>
       <c r="B31">
-        <v>1240.32663095969</v>
+        <v>87.698773863107206</v>
       </c>
       <c r="C31">
-        <v>0.72688484703470402</v>
+        <v>0.91433338194318503</v>
       </c>
       <c r="D31">
         <v>150</v>
@@ -12273,10 +12290,10 @@
         <v>200</v>
       </c>
       <c r="B32">
-        <v>1254.3136210264599</v>
+        <v>67.820918453081106</v>
       </c>
       <c r="C32">
-        <v>0.71715943134967297</v>
+        <v>0.930415904483055</v>
       </c>
       <c r="D32">
         <v>200</v>
@@ -12293,10 +12310,10 @@
         <v>250</v>
       </c>
       <c r="B33">
-        <v>1341.18965107999</v>
+        <v>201.32371804007599</v>
       </c>
       <c r="C33">
-        <v>0.59967298075616104</v>
+        <v>0.89749176700117705</v>
       </c>
       <c r="D33">
         <v>250</v>
@@ -12313,10 +12330,10 @@
         <v>300</v>
       </c>
       <c r="B34">
-        <v>1636.28865979381</v>
+        <v>106.678749707363</v>
       </c>
       <c r="C34">
-        <v>0.67201990927419297</v>
+        <v>0.90972134519979997</v>
       </c>
       <c r="D34">
         <v>300</v>
@@ -12333,10 +12350,10 @@
         <v>350</v>
       </c>
       <c r="B35">
-        <v>164256.74418604601</v>
+        <v>408.64614672529501</v>
       </c>
       <c r="C35">
-        <v>4.1729411131750598E-2</v>
+        <v>0.86152106599990896</v>
       </c>
       <c r="D35">
         <v>350</v>
@@ -12353,10 +12370,10 @@
         <v>400</v>
       </c>
       <c r="B36">
-        <v>2115.4743541744601</v>
+        <v>258.95418007167598</v>
       </c>
       <c r="C36">
-        <v>0.62699198928506705</v>
+        <v>0.88079838851259495</v>
       </c>
       <c r="D36">
         <v>400</v>
@@ -12373,10 +12390,10 @@
         <v>450</v>
       </c>
       <c r="B37">
-        <v>4973.0962858651601</v>
+        <v>686.88240013614995</v>
       </c>
       <c r="C37">
-        <v>0.43109539235230099</v>
+        <v>0.82217918913102495</v>
       </c>
       <c r="D37">
         <v>450</v>
@@ -12393,10 +12410,10 @@
         <v>500</v>
       </c>
       <c r="B38">
-        <v>3621.6074862197102</v>
+        <v>223.67318502097999</v>
       </c>
       <c r="C38">
-        <v>0.47012171812703801</v>
+        <v>0.89186189657711101</v>
       </c>
       <c r="D38">
         <v>500</v>
@@ -12413,10 +12430,10 @@
         <v>550</v>
       </c>
       <c r="B39">
-        <v>3081.2694950376199</v>
+        <v>441.15738355116201</v>
       </c>
       <c r="C39">
-        <v>0.57501536165730305</v>
+        <v>0.84738083742977499</v>
       </c>
       <c r="D39">
         <v>550</v>
@@ -12433,10 +12450,10 @@
         <v>600</v>
       </c>
       <c r="B40">
-        <v>1837.6583842851501</v>
+        <v>124.219717987838</v>
       </c>
       <c r="C40">
-        <v>0.64961408260465703</v>
+        <v>0.90553267431587503</v>
       </c>
       <c r="D40">
         <v>600</v>
@@ -12453,10 +12470,10 @@
         <v>650</v>
       </c>
       <c r="B41">
-        <v>4537.0419142444198</v>
+        <v>158.18235771674901</v>
       </c>
       <c r="C41">
-        <v>0.39654645874863997</v>
+        <v>0.89525399119925697</v>
       </c>
       <c r="D41">
         <v>650</v>
@@ -12473,10 +12490,10 @@
         <v>700</v>
       </c>
       <c r="B42">
-        <v>1284189.0909090899</v>
+        <v>1028.36093619189</v>
       </c>
       <c r="C42">
-        <v>5.9723929073033696E-3</v>
+        <v>0.78186078515766499</v>
       </c>
       <c r="D42">
         <v>700</v>
@@ -12493,10 +12510,10 @@
         <v>750</v>
       </c>
       <c r="B43">
-        <v>3621.6074862197102</v>
+        <v>305.88510426365798</v>
       </c>
       <c r="C43">
-        <v>0.47012171812703801</v>
+        <v>0.86400873419943802</v>
       </c>
       <c r="D43">
         <v>750</v>
@@ -12513,10 +12530,10 @@
         <v>800</v>
       </c>
       <c r="B44">
-        <v>2156.9827454573201</v>
+        <v>1745.2532740301399</v>
       </c>
       <c r="C44">
-        <v>0.62256404466065596</v>
+        <v>0.71798280202292497</v>
       </c>
       <c r="D44">
         <v>800</v>
@@ -12532,11 +12549,11 @@
       <c r="A45">
         <v>850</v>
       </c>
-      <c r="B45" s="6">
-        <v>14126080</v>
+      <c r="B45">
+        <v>805.93809727570897</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.81614641146022104</v>
       </c>
       <c r="D45">
         <v>850</v>
@@ -12553,10 +12570,10 @@
         <v>900</v>
       </c>
       <c r="B46">
-        <v>88564.764890282095</v>
+        <v>1813.36071887034</v>
       </c>
       <c r="C46">
-        <v>1.13098609097499E-2</v>
+        <v>0.70777462678959702</v>
       </c>
       <c r="D46">
         <v>900</v>
@@ -12573,10 +12590,10 @@
         <v>950</v>
       </c>
       <c r="B47">
-        <v>4552.3944569771102</v>
+        <v>473.39410187667499</v>
       </c>
       <c r="C47">
-        <v>0.39057406584133703</v>
+        <v>0.84565020869200802</v>
       </c>
       <c r="D47">
         <v>950</v>
@@ -12593,10 +12610,10 @@
         <v>1000</v>
       </c>
       <c r="B48">
-        <v>4552.3944569771102</v>
+        <v>233.974277219687</v>
       </c>
       <c r="C48">
-        <v>0.39057406584133703</v>
+        <v>0.87836869818095298</v>
       </c>
       <c r="D48">
         <v>1000</v>
